--- a/biology/Zoologie/Dryopsophus_manya/Dryopsophus_manya.xlsx
+++ b/biology/Zoologie/Dryopsophus_manya/Dryopsophus_manya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryopsophus manya est une espèce d'amphibiens de la famille des Pelodryadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryopsophus manya est une espèce d'amphibiens de la famille des Pelodryadidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre dans la partie centrale de la péninsule du cap York.
-Sa zone de répartition est d'environ 48 000 km2[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre dans la partie centrale de la péninsule du cap York.
+Sa zone de répartition est d'environ 48 000 km2.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 29,9 mm et la femelle 27,5 mm[3].
-Les mâles mesurent de 27 à 30 mm et les femelles de 27 à 28 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 29,9 mm et la femelle 27,5 mm.
+Les mâles mesurent de 27 à 30 mm et les femelles de 27 à 28 mm.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Van Beurden &amp; McDonald, 1980 : A new species of Cyclorana (Anura: Hylidae) from northern Queensland. Transactions of the Royal Society of South Australia, vol. 104, p. 193-196 (texte intégral).</t>
         </is>
